--- a/Data/STARE/Alpha.xlsx
+++ b/Data/STARE/Alpha.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="21">
   <si>
     <t>HED</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -89,6 +89,14 @@
   </si>
   <si>
     <t>CAL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Confidence=0.992</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Confidence=0.997</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -97,7 +105,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="179" formatCode="0.000_);[Red]\(0.000\)"/>
+    <numFmt numFmtId="176" formatCode="0.000_);[Red]\(0.000\)"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -135,7 +143,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -146,7 +154,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -455,14 +466,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="14.875" customWidth="1"/>
     <col min="3" max="3" width="12.875" customWidth="1"/>
+    <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.15">
@@ -618,7 +631,9 @@
       <c r="H7" s="4">
         <v>0.83399999999999996</v>
       </c>
-      <c r="J7" s="2"/>
+      <c r="J7" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8" s="1"/>
@@ -636,27 +651,27 @@
         <v>4</v>
       </c>
       <c r="B9" s="4">
-        <v>0.98899999999999999</v>
+        <v>0.99099999999999999</v>
       </c>
       <c r="C9" s="4">
         <v>0.95</v>
       </c>
       <c r="D9" s="4">
-        <v>0.87</v>
+        <v>0.86399999999999999</v>
       </c>
       <c r="E9" s="4">
-        <v>0.77500000000000002</v>
+        <v>0.76700000000000002</v>
       </c>
       <c r="F9" s="4">
-        <v>0.64600000000000002</v>
+        <v>0.64700000000000002</v>
       </c>
       <c r="G9" s="4">
-        <v>0.56399999999999995</v>
+        <v>0.56100000000000005</v>
       </c>
       <c r="H9" s="4">
-        <v>0.74299999999999999</v>
-      </c>
-      <c r="J9" s="3" t="s">
+        <v>0.73899999999999999</v>
+      </c>
+      <c r="J9" s="5" t="s">
         <v>7</v>
       </c>
     </row>
@@ -685,7 +700,7 @@
       <c r="H10" s="4">
         <v>0.96799999999999997</v>
       </c>
-      <c r="J10" s="3"/>
+      <c r="J10" s="5"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
@@ -698,10 +713,10 @@
         <v>0.96399999999999997</v>
       </c>
       <c r="D11" s="4">
-        <v>0.96</v>
+        <v>0.95899999999999996</v>
       </c>
       <c r="E11" s="4">
-        <v>0.92900000000000005</v>
+        <v>0.92700000000000005</v>
       </c>
       <c r="F11" s="4">
         <v>0.91900000000000004</v>
@@ -710,9 +725,9 @@
         <v>0.90100000000000002</v>
       </c>
       <c r="H11" s="4">
-        <v>0.91800000000000004</v>
-      </c>
-      <c r="J11" s="3"/>
+        <v>0.91700000000000004</v>
+      </c>
+      <c r="J11" s="5"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A12" s="1"/>
@@ -730,27 +745,27 @@
         <v>4</v>
       </c>
       <c r="B13" s="4">
-        <v>0.99099999999999999</v>
+        <v>0.99399999999999999</v>
       </c>
       <c r="C13" s="4">
         <v>0.89500000000000002</v>
       </c>
       <c r="D13" s="4">
-        <v>0.77800000000000002</v>
+        <v>0.77100000000000002</v>
       </c>
       <c r="E13" s="4">
-        <v>0.61299999999999999</v>
+        <v>0.60399999999999998</v>
       </c>
       <c r="F13" s="4">
         <v>0.61199999999999999</v>
       </c>
       <c r="G13" s="4">
-        <v>0.54</v>
+        <v>0.53600000000000003</v>
       </c>
       <c r="H13" s="4">
-        <v>0.55900000000000005</v>
-      </c>
-      <c r="J13" s="3" t="s">
+        <v>0.55500000000000005</v>
+      </c>
+      <c r="J13" s="5" t="s">
         <v>8</v>
       </c>
     </row>
@@ -779,34 +794,34 @@
       <c r="H14" s="4">
         <v>0.96799999999999997</v>
       </c>
-      <c r="J14" s="3"/>
+      <c r="J14" s="5"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B15" s="4">
-        <v>0.998</v>
+        <v>0.999</v>
       </c>
       <c r="C15" s="4">
         <v>0.95199999999999996</v>
       </c>
       <c r="D15" s="4">
-        <v>0.94</v>
+        <v>0.93799999999999994</v>
       </c>
       <c r="E15" s="4">
-        <v>0.89200000000000002</v>
+        <v>0.89</v>
       </c>
       <c r="F15" s="4">
         <v>0.91100000000000003</v>
       </c>
       <c r="G15" s="4">
-        <v>0.89600000000000002</v>
+        <v>0.89500000000000002</v>
       </c>
       <c r="H15" s="4">
-        <v>0.877</v>
-      </c>
-      <c r="J15" s="3"/>
+        <v>0.876</v>
+      </c>
+      <c r="J15" s="5"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A16" s="1"/>
@@ -824,27 +839,27 @@
         <v>4</v>
       </c>
       <c r="B17" s="4">
-        <v>0.99199999999999999</v>
+        <v>0.996</v>
       </c>
       <c r="C17" s="4">
-        <v>0.84099999999999997</v>
+        <v>0.83899999999999997</v>
       </c>
       <c r="D17" s="4">
-        <v>0.68600000000000005</v>
+        <v>0.67800000000000005</v>
       </c>
       <c r="E17" s="4">
-        <v>0.45100000000000001</v>
+        <v>0.442</v>
       </c>
       <c r="F17" s="4">
-        <v>0.57799999999999996</v>
+        <v>0.57599999999999996</v>
       </c>
       <c r="G17" s="4">
-        <v>0.51600000000000001</v>
+        <v>0.51200000000000001</v>
       </c>
       <c r="H17" s="4">
-        <v>0.376</v>
-      </c>
-      <c r="J17" s="3" t="s">
+        <v>0.371</v>
+      </c>
+      <c r="J17" s="5" t="s">
         <v>9</v>
       </c>
     </row>
@@ -873,34 +888,34 @@
       <c r="H18" s="4">
         <v>0.96799999999999997</v>
       </c>
-      <c r="J18" s="3"/>
+      <c r="J18" s="5"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B19" s="4">
-        <v>0.998</v>
+        <v>0.999</v>
       </c>
       <c r="C19" s="4">
         <v>0.93899999999999995</v>
       </c>
       <c r="D19" s="4">
-        <v>0.91900000000000004</v>
+        <v>0.91700000000000004</v>
       </c>
       <c r="E19" s="4">
-        <v>0.85599999999999998</v>
+        <v>0.85399999999999998</v>
       </c>
       <c r="F19" s="4">
         <v>0.90400000000000003</v>
       </c>
       <c r="G19" s="4">
-        <v>0.89100000000000001</v>
+        <v>0.89</v>
       </c>
       <c r="H19" s="4">
-        <v>0.83599999999999997</v>
-      </c>
-      <c r="J19" s="3"/>
+        <v>0.83499999999999996</v>
+      </c>
+      <c r="J19" s="5"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A22" s="1"/>
@@ -1055,7 +1070,9 @@
       <c r="H28" s="4">
         <v>0.84399999999999997</v>
       </c>
-      <c r="J28" s="2"/>
+      <c r="J28" s="3" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A29" s="1"/>
@@ -1073,27 +1090,27 @@
         <v>4</v>
       </c>
       <c r="B30" s="4">
-        <v>0.98299999999999998</v>
+        <v>0.98399999999999999</v>
       </c>
       <c r="C30" s="4">
         <v>0.91500000000000004</v>
       </c>
       <c r="D30" s="4">
-        <v>0.88400000000000001</v>
+        <v>0.88600000000000001</v>
       </c>
       <c r="E30" s="4">
-        <v>0.79200000000000004</v>
+        <v>0.78600000000000003</v>
       </c>
       <c r="F30" s="4">
-        <v>0.73</v>
+        <v>0.72199999999999998</v>
       </c>
       <c r="G30" s="4">
         <v>0.66300000000000003</v>
       </c>
       <c r="H30" s="4">
-        <v>0.76800000000000002</v>
-      </c>
-      <c r="J30" s="3" t="s">
+        <v>0.76600000000000001</v>
+      </c>
+      <c r="J30" s="5" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1122,7 +1139,7 @@
       <c r="H31" s="4">
         <v>0.95</v>
       </c>
-      <c r="J31" s="3"/>
+      <c r="J31" s="5"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
@@ -1138,10 +1155,10 @@
         <v>0.96</v>
       </c>
       <c r="E32" s="4">
-        <v>0.93200000000000005</v>
+        <v>0.93100000000000005</v>
       </c>
       <c r="F32" s="4">
-        <v>0.94799999999999995</v>
+        <v>0.94599999999999995</v>
       </c>
       <c r="G32" s="4">
         <v>0.93700000000000006</v>
@@ -1149,7 +1166,7 @@
       <c r="H32" s="4">
         <v>0.91700000000000004</v>
       </c>
-      <c r="J32" s="3"/>
+      <c r="J32" s="5"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A33" s="1"/>
@@ -1167,27 +1184,27 @@
         <v>4</v>
       </c>
       <c r="B34" s="4">
-        <v>0.98699999999999999</v>
+        <v>0.99</v>
       </c>
       <c r="C34" s="4">
         <v>0.82499999999999996</v>
       </c>
       <c r="D34" s="4">
-        <v>0.77600000000000002</v>
+        <v>0.77500000000000002</v>
       </c>
       <c r="E34" s="4">
-        <v>0.60599999999999998</v>
+        <v>0.6</v>
       </c>
       <c r="F34" s="4">
-        <v>0.68300000000000005</v>
+        <v>0.67500000000000004</v>
       </c>
       <c r="G34" s="4">
-        <v>0.63800000000000001</v>
+        <v>0.63700000000000001</v>
       </c>
       <c r="H34" s="4">
-        <v>0.54800000000000004</v>
-      </c>
-      <c r="J34" s="3" t="s">
+        <v>0.54600000000000004</v>
+      </c>
+      <c r="J34" s="5" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1216,7 +1233,7 @@
       <c r="H35" s="4">
         <v>0.95</v>
       </c>
-      <c r="J35" s="3"/>
+      <c r="J35" s="5"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
@@ -1232,10 +1249,10 @@
         <v>0.94</v>
       </c>
       <c r="E36" s="4">
-        <v>0.89800000000000002</v>
+        <v>0.89700000000000002</v>
       </c>
       <c r="F36" s="4">
-        <v>0.93899999999999995</v>
+        <v>0.93799999999999994</v>
       </c>
       <c r="G36" s="4">
         <v>0.93300000000000005</v>
@@ -1243,7 +1260,7 @@
       <c r="H36" s="4">
         <v>0.877</v>
       </c>
-      <c r="J36" s="3"/>
+      <c r="J36" s="5"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A37" s="1"/>
@@ -1261,27 +1278,27 @@
         <v>4</v>
       </c>
       <c r="B38" s="4">
-        <v>0.997</v>
+        <v>0.995</v>
       </c>
       <c r="C38" s="4">
-        <v>0.73599999999999999</v>
+        <v>0.73399999999999999</v>
       </c>
       <c r="D38" s="4">
-        <v>0.66800000000000004</v>
+        <v>0.66500000000000004</v>
       </c>
       <c r="E38" s="4">
-        <v>0.42</v>
+        <v>0.41399999999999998</v>
       </c>
       <c r="F38" s="4">
-        <v>0.63700000000000001</v>
+        <v>0.628</v>
       </c>
       <c r="G38" s="4">
-        <v>0.61299999999999999</v>
+        <v>0.61199999999999999</v>
       </c>
       <c r="H38" s="4">
-        <v>0.32800000000000001</v>
-      </c>
-      <c r="J38" s="3" t="s">
+        <v>0.32700000000000001</v>
+      </c>
+      <c r="J38" s="5" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1310,26 +1327,26 @@
       <c r="H39" s="4">
         <v>0.95</v>
       </c>
-      <c r="J39" s="3"/>
+      <c r="J39" s="5"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B40" s="4">
-        <v>0.998</v>
+        <v>0.999</v>
       </c>
       <c r="C40" s="4">
+        <v>0.92800000000000005</v>
+      </c>
+      <c r="D40" s="4">
+        <v>0.92</v>
+      </c>
+      <c r="E40" s="4">
+        <v>0.86399999999999999</v>
+      </c>
+      <c r="F40" s="4">
         <v>0.92900000000000005</v>
-      </c>
-      <c r="D40" s="4">
-        <v>0.92100000000000004</v>
-      </c>
-      <c r="E40" s="4">
-        <v>0.86499999999999999</v>
-      </c>
-      <c r="F40" s="4">
-        <v>0.93100000000000005</v>
       </c>
       <c r="G40" s="4">
         <v>0.92800000000000005</v>
@@ -1337,7 +1354,7 @@
       <c r="H40" s="4">
         <v>0.83799999999999997</v>
       </c>
-      <c r="J40" s="3"/>
+      <c r="J40" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="6">
